--- a/texto/resultados.xlsx
+++ b/texto/resultados.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hops" sheetId="1" r:id="rId1"/>
+    <sheet name="messages" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hops!$A$1:$B$12</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,18 +24,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+  <si>
+    <t>Saltos (Feromônio)</t>
+  </si>
   <si>
     <t>Saltos (Flooding)</t>
   </si>
   <si>
-    <t>Saltos (Feromônio)</t>
+    <t>Mensagens(Feromônio)</t>
   </si>
   <si>
-    <t>Mensagens (Feromônio)</t>
+    <t>Mensagens(Flooding)</t>
   </si>
   <si>
-    <t>Mensagens (Flooding)</t>
+    <t>25 ou mais</t>
+  </si>
+  <si>
+    <t>5 a 10</t>
+  </si>
+  <si>
+    <t>10 a 15</t>
+  </si>
+  <si>
+    <t>15 a 20</t>
+  </si>
+  <si>
+    <t>0 a 5</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>Saltos(Flooding)</t>
+  </si>
+  <si>
+    <t>Mensagens(Feromonio)</t>
+  </si>
+  <si>
+    <t>Saltos(Feromônio)</t>
   </si>
 </sst>
 </file>
@@ -62,7 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,7 +118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -93,17 +126,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -132,10 +244,2612 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400"/>
+              <a:defRPr sz="2800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>úmero de Saltos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hops!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saltos (Feromônio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>hops!$A$2:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hops!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saltos (Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>hops!$B$2:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="452529112"/>
+        <c:axId val="452532136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="452529112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452532136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452532136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452529112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Histrograma</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> do N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>úmero de Saltos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hops!$E$63:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequencia Saltos(Feromônio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hops!$D$65:$D$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 a 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 a 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 a 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 a 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25 ou mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hops!$E$65:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hops!$F$63:$F$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequencia Saltos(Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hops!$D$65:$D$69</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 a 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 a 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 a 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 a 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25 ou mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hops!$F$65:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="471042808"/>
+        <c:axId val="471045784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471042808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471045784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471045784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="471042808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Média de Saltos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:t>13.39</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1"/>
+                      <a:t>9.29</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hops!$A$105:$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Saltos (Feromônio)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saltos (Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hops!$A$106:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.33673469387755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.928571428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="766345128"/>
+        <c:axId val="437608248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766345128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437608248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437608248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="766345128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>úmero de Mensagens</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>messages!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mensagens(Feromônio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>messages!$A$2:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>messages!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mensagens(Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>messages!$B$2:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="471084840"/>
+        <c:axId val="471087816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471084840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471087816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471087816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471084840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Histograma do</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>úmero de Mensagens</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>messages!$E$4:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequencia Mensagens(Feromonio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>messages!$D$6:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 a 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 a 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 a 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 a 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25 ou mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>messages!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>messages!$F$4:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequencia Mensagens(Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>messages!$D$6:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 a 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 a 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 a 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 a 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25 ou mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>messages!$F$6:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="471149016"/>
+        <c:axId val="471151992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471149016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471151992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471151992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="471149016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Média de Mensagens Enviadas</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.189911636045494"/>
+          <c:y val="0.037037037037037"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0361111111111111"/>
+          <c:y val="0.261377870563674"/>
+          <c:w val="0.927777777777778"/>
+          <c:h val="0.617466835434714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>10.76</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>85.62</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>messages!$A$106:$B$106</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mensagens(Feromônio)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mensagens(Flooding)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>messages!$A$107:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.74489795918367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.60204081632654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="553045944"/>
+        <c:axId val="552766088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553045944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552766088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552766088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="553045944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Médias dos Resultados</a:t>
             </a:r>
           </a:p>
@@ -151,10 +2865,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0248091603053435"/>
-          <c:y val="0.332904175137879"/>
-          <c:w val="0.950381679389313"/>
-          <c:h val="0.594780235209543"/>
+          <c:x val="0.0387195260448213"/>
+          <c:y val="0.414710595386103"/>
+          <c:w val="0.914836735455462"/>
+          <c:h val="0.512973891421467"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -166,11 +2880,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>'Sheet1 (2)'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saltos (Flooding)</c:v>
+                  <c:v>Saltos (Feromônio)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -202,12 +2916,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Sheet1 (2)'!$A$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.32</c:v>
+                  <c:v>13.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -218,11 +2932,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Sheet1 (2)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saltos (Feromônio)</c:v>
+                  <c:v>Saltos (Flooding)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,12 +2963,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Sheet1 (2)'!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.46</c:v>
+                  <c:v>9.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,11 +2979,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Sheet1 (2)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mensagens (Feromônio)</c:v>
+                  <c:v>Mensagens(Feromônio)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -296,12 +3010,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Sheet1 (2)'!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.41</c:v>
+                  <c:v>10.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,11 +3026,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Sheet1 (2)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mensagens (Flooding)</c:v>
+                  <c:v>Mensagens(Flooding)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,12 +3057,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Sheet1 (2)'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>104.85</c:v>
+                  <c:v>85.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,11 +3078,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="696636168"/>
-        <c:axId val="458860696"/>
+        <c:axId val="579418056"/>
+        <c:axId val="579776552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="696636168"/>
+        <c:axId val="579418056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +3091,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458860696"/>
+        <c:crossAx val="579776552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -385,7 +3099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458860696"/>
+        <c:axId val="579776552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +3109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696636168"/>
+        <c:crossAx val="579418056"/>
         <c:crossesAt val="-1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -418,7 +3132,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1"/>
+            <a:defRPr sz="1400" b="1"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -440,21 +3154,213 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>70538</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -793,10 +3699,1837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F106"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <f>COUNTIF(A2:A99,"&lt;= 5")</f>
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIF(B2:B99,"&lt;= 5")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <f>COUNTIF(A2:A99,"&lt;= 10")-COUNTIF(A2:A99,"&lt;=5")</f>
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIF(B2:B99,"&lt;= 10")-COUNTIF(B2:B99,"&lt;=5")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <f>COUNTIF(A2:A99,"&lt;= 15")-COUNTIF(A2:A99,"&lt;=10")</f>
+        <v>38</v>
+      </c>
+      <c r="F67">
+        <f>COUNTIF(B2:B99,"&lt;= 15")-COUNTIF(B2:B99,"&lt;=10")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <f>COUNTIF(A2:A99,"&lt;= 20")-COUNTIF(A2:A99,"&lt;=15")</f>
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <f>COUNTIF(B2:B99,"&lt;= 20")-COUNTIF(B2:B99,"&lt;=15")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <f>COUNTIF(A2:A99,"&gt;= 25")</f>
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <f>COUNTIF(B2:B99,"&gt;= 25")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>31</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f>AVERAGE(A2:A99)</f>
+        <v>13.336734693877551</v>
+      </c>
+      <c r="B100">
+        <f>AVERAGE(B2:B99)</f>
+        <v>9.9285714285714288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <f>AVERAGE(A2:A99)</f>
+        <v>13.336734693877551</v>
+      </c>
+      <c r="B106">
+        <f>AVERAGE(B2:B99)</f>
+        <v>9.9285714285714288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <f>COUNTIF(A2:A99,"&lt;= 5")</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <f>COUNTIF(B2:B99,"&lt;= 5")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>COUNTIF(A2:A99,"&lt;= 10")-COUNTIF(A2:A99,"&lt;=5")</f>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <f>COUNTIF(B2:B99,"&lt;= 10")-COUNTIF(B2:B99,"&lt;=5")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>390</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f>COUNTIF(A2:A99,"&lt;= 15")-COUNTIF(A2:A99,"&lt;=10")</f>
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <f>COUNTIF(B2:B99,"&lt;= 15")-COUNTIF(B2:B99,"&lt;=10")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <f>COUNTIF(A2:A99,"&lt;= 20")-COUNTIF(A2:A99,"&lt;=15")</f>
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <f>COUNTIF(B2:B99,"&lt;= 20")-COUNTIF(B2:B99,"&lt;=15")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <f>COUNTIF(A2:A99,"&gt;= 25")</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <f>COUNTIF(B2:B99,"&gt;= 25")</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f>AVERAGE(A2:A99)</f>
+        <v>10.744897959183673</v>
+      </c>
+      <c r="B100">
+        <f>AVERAGE(B2:B99)</f>
+        <v>85.602040816326536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <f>AVERAGE(A2:A99)</f>
+        <v>10.744897959183673</v>
+      </c>
+      <c r="B107">
+        <f>AVERAGE(B2:B99)</f>
+        <v>85.602040816326536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -822,23 +5555,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>13.32</v>
-      </c>
-      <c r="B2">
-        <v>15.46</v>
+      <c r="A2" s="2">
+        <v>13.39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.2899999999999991</v>
       </c>
       <c r="C2">
-        <v>14.41</v>
+        <v>10.76</v>
       </c>
       <c r="D2">
-        <v>104.85</v>
+        <v>85.62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
